--- a/mitochondria distance/010725_mito_OA/wt_settings_analysis_by_image.xlsx
+++ b/mitochondria distance/010725_mito_OA/wt_settings_analysis_by_image.xlsx
@@ -461,9 +461,7 @@
           <t>wt_mitotracker_Lipidtox_01</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
@@ -477,9 +475,7 @@
           <t>wt_mitotracker_Lipidtox_02</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
         <v>0</v>
       </c>
@@ -493,9 +489,7 @@
           <t>wt_mitotracker_Lipidtox_03</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>0.0055559208363469</v>
@@ -507,14 +501,12 @@
           <t>wt_mitotracker_Lipidtox_04</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0.08991527739819623</v>
+        <v>0.09466938537722108</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03276054220770806</v>
+        <v>0.03267283362106728</v>
       </c>
     </row>
     <row r="6">
@@ -523,9 +515,7 @@
           <t>wt_mitotracker_Lipidtox_05</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>0.2514484356894554</v>
       </c>
@@ -539,9 +529,7 @@
           <t>wt_mitotracker_Lipidtox_06</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>0.2074616922051965</v>
       </c>
@@ -555,14 +543,12 @@
           <t>wt_mitotracker_Lipidtox_07</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0.04777070063694268</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="D8" t="n">
-        <v>0.009315657470440702</v>
+        <v>0.009260702121502193</v>
       </c>
     </row>
     <row r="9">
@@ -571,14 +557,12 @@
           <t>wt_mitotracker_Lipidtox_08</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.2063824221815328</v>
+        <v>0.2218613190227369</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03278442501057342</v>
+        <v>0.03262841515258184</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +575,10 @@
         <v>0.002701659590891548</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006692320562154928</v>
+        <v>0.02584493041749503</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0005664805373472526</v>
+        <v>0.0005619330496909368</v>
       </c>
     </row>
     <row r="11">
@@ -607,10 +591,10 @@
         <v>0.01415558838010832</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03442651098901099</v>
+        <v>0.07320754716981132</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02705756086539005</v>
+        <v>0.02660296433031109</v>
       </c>
     </row>
     <row r="12">
@@ -622,11 +606,9 @@
       <c r="B12" t="n">
         <v>0.005517479201689728</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.01108605787298008</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>0.009346446257934017</v>
+        <v>0.009130553284273644</v>
       </c>
     </row>
     <row r="13">
@@ -639,10 +621,10 @@
         <v>0.008826247689463955</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008008708498561543</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005837173579109063</v>
+        <v>0.0058288168524389</v>
       </c>
     </row>
     <row r="14">
@@ -655,10 +637,10 @@
         <v>0.006907736665064872</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008312843929282285</v>
+        <v>0.01634042553191489</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00241914581113383</v>
+        <v>0.002359285473542299</v>
       </c>
     </row>
     <row r="15">
@@ -670,9 +652,7 @@
       <c r="B15" t="n">
         <v>0.003224429797524776</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.003525658962448934</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
         <v>0</v>
       </c>
@@ -687,7 +667,7 @@
         <v>0.007166947723440135</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009641287395434567</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
